--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1961946.112016088</v>
+        <v>2063588.624128624</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5565699.43370362</v>
+        <v>5879993.200587118</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>62.6959662442144</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.0719604558766</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>19.16056802173566</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>83.96479208594954</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>217.9989753080946</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>71.0216921185162</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>206.2991880762812</v>
       </c>
       <c r="X7" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.84528284436655</v>
+        <v>31.40676779456533</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>32.33068528294861</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>208.1928846889746</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.990622819018423</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>177.4454431675461</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>248.6765088904771</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430617</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>103.3456594571954</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2959,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>171.7931177684368</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251645</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>133.9986524434723</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>137.2470510215431</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.8359453046505</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629681</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791315101</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800147</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225076</v>
       </c>
       <c r="T43" t="n">
-        <v>140.265305225936</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791315101</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800147</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>129.1865135103701</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617035</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>587.458323283332</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>158.8766490206003</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>127.0072682354489</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>97.27292743414814</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4392,10 +4394,10 @@
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
         <v>75.67932078539587</v>
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
+        <v>778.554892512724</v>
+      </c>
+      <c r="M3" t="n">
+        <v>778.554892512724</v>
+      </c>
+      <c r="N3" t="n">
+        <v>778.554892512724</v>
+      </c>
+      <c r="O3" t="n">
+        <v>778.554892512724</v>
+      </c>
+      <c r="P3" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>685.9021756729128</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
-        <v>685.9021756729128</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1580.667833301518</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4519,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>685.9021756729128</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>685.9021756729128</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.9021756729128</v>
+        <v>940.4401176967148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.8743158913576</v>
+        <v>2259.130106313601</v>
       </c>
       <c r="C5" t="n">
-        <v>520.7722471151849</v>
+        <v>2038.92912115391</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>1603.019336328354</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="U5" t="n">
-        <v>1405.37712000546</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="V5" t="n">
-        <v>1405.37712000546</v>
+        <v>2301.552102346895</v>
       </c>
       <c r="W5" t="n">
-        <v>1000.521665416493</v>
+        <v>2300.737051798332</v>
       </c>
       <c r="X5" t="n">
-        <v>985.4196060362079</v>
+        <v>2285.634992418047</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.1334823358613</v>
+        <v>2281.389272758105</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0602407069692</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1089.571364023507</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179216</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1321.309165920346</v>
       </c>
       <c r="X7" t="n">
-        <v>1532.240118618369</v>
+        <v>1321.309165920346</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>866.5213804116893</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>832.4193116355167</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.7760549995292</v>
+        <v>888.780546856193</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>453.9965675465116</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>874.0494664914149</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1294.102365436318</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2608756884973</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>592.4712490740719</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>347.0794944074844</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.0794944074844</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.77682059263</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.634347776053</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G11" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>511.3923006645388</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.658357898061</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3547.658357898061</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.658357898061</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3337.362514777884</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2929.076391077538</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N12" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O12" t="n">
-        <v>426.7596113382908</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1526.457795636977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1526.457795636977</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1090.548010811422</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>656.7732659697167</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>656.7732659697167</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>255.3754345929806</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.658357898061</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3185.041407831887</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2780.185953242921</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.043489822232</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1952.757366121885</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162089</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162089</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>378.9152695791561</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>378.9152695791561</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>378.9152695791561</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>378.9152695791561</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>378.9152695791561</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.638436058354</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>812.8760585574645</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>812.8760585574645</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>646.9980657589872</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2036.488015172209</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1749.532507042639</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.506102628931</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1232.114347962343</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.694677276452</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,16 +5524,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5595,25 +5597,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5829,28 +5831,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N21" t="n">
-        <v>1300.985674363279</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.146432354979</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>884.5847208382039</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>718.7067280397266</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>548.9487242904638</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>372.24167025222</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>206.6503952780477</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1476.384721759858</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1248.965051073966</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>269.4112304877937</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1103.761522445972</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2178.821488698831</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6069,22 +6071,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
         <v>1765.500601749588</v>
@@ -6172,7 +6174,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
         <v>4455.130296812566</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6469,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186841</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812565</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812565</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812565</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,22 +7177,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>673.1212928181459</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7369,13 +7371,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1455.454534099992</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>2612.502369310543</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3101.389534015723</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3101.389534015723</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2693.103410315377</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2649.812644093528</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>2543.35618293017</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>2448.265894076723</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>2354.145479403677</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>2270.761641019838</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>2185.376551286022</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>2143.640899102235</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>2169.704572262693</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>2494.262897228905</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>3174.996417299282</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>3689.707882486704</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>3806.880660581043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>3743.425223029426</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>3613.246579360028</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>3436.910032359996</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>3237.792514421996</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>3052.46976015519</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>2897.60232439407</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>2771.116545173291</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>889.8287705599338</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C43" t="n">
-        <v>717.2670590431587</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D43" t="n">
-        <v>551.3890662446814</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E43" t="n">
-        <v>381.6310624954187</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954187</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955473</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338899</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T43" t="n">
-        <v>2391.873727921573</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U43" t="n">
-        <v>2113.440727174678</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V43" t="n">
-        <v>1826.485219045109</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W43" t="n">
-        <v>1554.4588146314</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X43" t="n">
-        <v>1309.067059964813</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1081.647389278921</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>151.9618952662226</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>1094.164858760031</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>1094.164858760031</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N44" t="n">
-        <v>2036.367822253839</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O44" t="n">
-        <v>2978.570785747647</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3464.006484081897</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3059.15102949293</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3059.15102949293</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>680.001633102282</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>811.754677688391</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>639.1929661716158</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>473.3149733731384</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>303.5569696238755</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>126.8499155856316</v>
       </c>
       <c r="G46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354693</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745658</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360019</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,7 +8145,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>380.8256479632742</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>65.06686390159643</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,16 +8382,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.1525905495951</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328639</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,19 +9172,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>350.8506558504741</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.59018389353713</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>951.7201651452608</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>206.7581540975078</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405299</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.7934098436698</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>26.97216184894864</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.4463752142676</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>35.15749310933383</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.146865729424576</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>160.7958207444069</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>33.58904338006423</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.2006294754082</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627327</v>
       </c>
       <c r="T43" t="n">
-        <v>103.1553467313933</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>275.016748952973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627272</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307153</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168195</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>479114.418481694</v>
+        <v>491796.7409049693</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>479114.418481694</v>
+        <v>494080.2209508948</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416633.2077220592</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416633.2077220592</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515290.7459915759</v>
+        <v>515290.745991576</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>515290.7459915759</v>
+        <v>515290.745991576</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515290.7459915759</v>
+        <v>515290.7459915758</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416633.207722059</v>
+        <v>515290.7459915758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416633.207722059</v>
+        <v>515290.7459915758</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>495936.2708986276</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
         <v>487343.2653270509</v>
@@ -26335,25 +26337,25 @@
         <v>487343.2653270508</v>
       </c>
       <c r="J2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="K2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="L2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="M2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="N2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="O2" t="n">
         <v>487343.2653270506</v>
       </c>
-      <c r="K2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="O2" t="n">
-        <v>394036.5501892229</v>
-      </c>
       <c r="P2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998262</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221041</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877267</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622194</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26453,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>65847.15553423097</v>
+        <v>81439.57146904265</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.5714690427</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88359.20925982861</v>
+        <v>88359.20925982864</v>
       </c>
       <c r="C6" t="n">
-        <v>230550.5099195387</v>
+        <v>185919.5234031326</v>
       </c>
       <c r="D6" t="n">
-        <v>230550.5099195386</v>
+        <v>244933.062527329</v>
       </c>
       <c r="E6" t="n">
-        <v>112847.5136920561</v>
+        <v>145830.3460311658</v>
       </c>
       <c r="F6" t="n">
-        <v>270324.8086141602</v>
+        <v>328185.4552522154</v>
       </c>
       <c r="G6" t="n">
-        <v>238685.6466458465</v>
+        <v>328185.4552522155</v>
       </c>
       <c r="H6" t="n">
-        <v>328185.4552522155</v>
+        <v>328185.4552522154</v>
       </c>
       <c r="I6" t="n">
-        <v>328185.4552522155</v>
+        <v>328185.4552522154</v>
       </c>
       <c r="J6" t="n">
         <v>217170.9899072251</v>
       </c>
       <c r="K6" t="n">
-        <v>328185.4552522154</v>
+        <v>275139.6006134428</v>
       </c>
       <c r="L6" t="n">
-        <v>328185.4552522154</v>
+        <v>318793.1535255932</v>
       </c>
       <c r="M6" t="n">
-        <v>196749.2080947958</v>
+        <v>175985.2843142279</v>
       </c>
       <c r="N6" t="n">
         <v>328185.4552522154</v>
       </c>
       <c r="O6" t="n">
-        <v>270324.8086141601</v>
+        <v>328185.4552522156</v>
       </c>
       <c r="P6" t="n">
-        <v>270324.8086141602</v>
+        <v>328185.4552522156</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939292</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.745296776888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939292</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939292</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.745296776888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>360.8927890506699</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>250.1455723478357</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>141.1806818930833</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>215.7620727803163</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>185.6083875376371</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>63.00695229329017</v>
       </c>
       <c r="X7" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.3579796189765</v>
+        <v>372.7964946687778</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>138.5054091186587</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M3" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>380.8256479632742</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>65.06686390159643</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.1525905495951</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>305.8360165328639</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,19 +35892,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>350.8506558504741</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>168.8387779969839</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132072</v>
@@ -36835,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37944,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645529</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.59018389353713</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452608</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8000219838295</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>951.7201651452608</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2063588.624128624</v>
+        <v>2063063.441759591</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>62.6959662442144</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>307.1953825260221</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>10.12512804809564</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>83.96479208594954</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>217.9989753080946</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>226.9132098455715</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>143.2075541800579</v>
       </c>
       <c r="W7" t="n">
-        <v>206.2991880762812</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>272.8457603870804</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.40676779456533</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.990622819018423</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630673</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629692</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>172.7199300810965</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430617</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>111.5098183264943</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.34318456170124</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>108.5103196251645</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>111.2693566202701</v>
       </c>
     </row>
     <row r="38">
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>234.1486472602376</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629681</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791315101</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800147</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704926</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244307</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225076</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573294</v>
+        <v>20.56754178381338</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.085953048274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695715</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790329</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791315101</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800147</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556919</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317973</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016074</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704926</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117702</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978614</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.3431845617035</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149834</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573294</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394258</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.085953048274</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695715</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790329</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.458323283332</v>
+        <v>1348.708787519165</v>
       </c>
       <c r="C2" t="n">
-        <v>158.8766490206003</v>
+        <v>920.1271132564331</v>
       </c>
       <c r="D2" t="n">
-        <v>127.0072682354489</v>
+        <v>491.5454389937014</v>
       </c>
       <c r="E2" t="n">
-        <v>97.27292743414814</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4330,10 +4330,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4345,7 +4345,7 @@
         <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>1370.967953963668</v>
       </c>
     </row>
     <row r="3">
@@ -4388,43 +4388,43 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1686.956028011634</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1441.076581590089</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1162.643580843194</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>875.6880727136247</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>603.6616682999163</v>
       </c>
       <c r="X4" t="n">
-        <v>1025.253038995654</v>
+        <v>603.6616682999163</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>376.2419976140245</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2259.130106313601</v>
+        <v>1183.424247503184</v>
       </c>
       <c r="C5" t="n">
-        <v>2038.92912115391</v>
+        <v>745.2817746866076</v>
       </c>
       <c r="D5" t="n">
-        <v>1603.019336328354</v>
+        <v>309.3719898610521</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>279.6376490597513</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087175</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087175</v>
+        <v>1897.518545429075</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087175</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473856</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346895</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346895</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.552102346895</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="W5" t="n">
-        <v>2300.737051798332</v>
+        <v>2033.112001068724</v>
       </c>
       <c r="X5" t="n">
-        <v>2285.634992418047</v>
+        <v>2018.009941688439</v>
       </c>
       <c r="Y5" t="n">
-        <v>2281.389272758105</v>
+        <v>1609.723817988092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993473</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1089.571364023507</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>735.337148692236</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>562.775437175461</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>396.8974443769836</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>227.1394406277209</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
         <v>1289.464275274177</v>
@@ -4743,34 +4743,34 @@
         <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179216</v>
+        <v>1671.993597177411</v>
       </c>
       <c r="W7" t="n">
-        <v>1321.309165920346</v>
+        <v>1399.967192763703</v>
       </c>
       <c r="X7" t="n">
-        <v>1321.309165920346</v>
+        <v>1154.575438097115</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>927.1557674112232</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.5213804116893</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>832.4193116355167</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>800.5499308503653</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
         <v>1149.495958523325</v>
@@ -4819,13 +4819,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>1830.702594087989</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.780546856193</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,25 +4986,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
         <v>1324.277995859497</v>
@@ -5029,7 +5029,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5047,31 +5047,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912873</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.710185817961</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>926.148474301186</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>760.2704815027087</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>590.5124777534459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>413.8054237152021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>248.2141487410298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>108.3119744314043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5235,16 +5235,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1763.340229889428</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.94847522284</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1290.528804536948</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5287,28 +5287,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
         <v>444.5591692831957</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5524,16 +5524,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5679,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745698</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173583</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688169</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321676</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>811.7546776883883</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>639.1929661716132</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>473.3149733731359</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>303.5569696238732</v>
       </c>
       <c r="F28" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856294</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6399,37 +6399,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759855</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093267</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.573296407375</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6937,16 +6937,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2758.053686176683</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004233</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,7 +7213,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7250,25 +7250,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1748.411126173566</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,13 +7417,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1455.454534099992</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2612.502369310543</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3738.23335274699</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
         <v>3738.23335274699</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477115</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309363</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324589</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>444.559169283196</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7578,43 +7578,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955473</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338899</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173573</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173573</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130896</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709351</v>
+        <v>2517.485965445823</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962456</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832887</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419178</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066699</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,25 +7648,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N44" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O44" t="n">
-        <v>4294.449917128814</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q44" t="n">
         <v>5113.04201353898</v>
@@ -7690,10 +7690,10 @@
         <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7730,7 +7730,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
         <v>1107.588885023173</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.754677688391</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716158</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731384</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238755</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>126.8499155856316</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745658</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
         <v>2203.220781338905</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407378</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>165.2827306031545</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>72.805895586112</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684641</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>65.06686390159643</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9172,19 +9172,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9418,10 +9418,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>84.43304486678426</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,19 +11305,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>826.8607034446122</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>81.78272691405299</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.220053416764841</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142676</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.43016517136702</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627294</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>160.7958207444069</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>113.8761173587627</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.789189859684058</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627327</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627272</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665293</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307153</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168195</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>515290.745991576</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>515290.7459915759</v>
+        <v>515290.7459915758</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>515290.745991576</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>515290.7459915759</v>
+        <v>515290.7459915758</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>515290.7459915758</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515290.7459915758</v>
+        <v>515290.7459915759</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>515290.7459915758</v>
+        <v>515290.745991576</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>495936.2708986276</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="F2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="K2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="K2" t="n">
-        <v>487343.2653270508</v>
-      </c>
       <c r="L2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="N2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501614</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998262</v>
+        <v>11527.59554998281</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877267</v>
+        <v>53045.85463877249</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622194</v>
+        <v>9392.301726622343</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,31 +26420,31 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924761</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26453,13 +26453,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904265</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.5714690427</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88359.20925982864</v>
+        <v>88359.20925982861</v>
       </c>
       <c r="C6" t="n">
-        <v>185919.5234031326</v>
+        <v>185919.5234031329</v>
       </c>
       <c r="D6" t="n">
-        <v>244933.062527329</v>
+        <v>244933.0625273288</v>
       </c>
       <c r="E6" t="n">
-        <v>145830.3460311658</v>
+        <v>145807.1216917829</v>
       </c>
       <c r="F6" t="n">
-        <v>328185.4552522154</v>
+        <v>328162.2309128328</v>
       </c>
       <c r="G6" t="n">
-        <v>328185.4552522155</v>
+        <v>328162.2309128328</v>
       </c>
       <c r="H6" t="n">
-        <v>328185.4552522154</v>
+        <v>328162.2309128328</v>
       </c>
       <c r="I6" t="n">
-        <v>328185.4552522154</v>
+        <v>328162.2309128327</v>
       </c>
       <c r="J6" t="n">
-        <v>217170.9899072251</v>
+        <v>217147.7655678425</v>
       </c>
       <c r="K6" t="n">
-        <v>275139.6006134428</v>
+        <v>275116.3762740602</v>
       </c>
       <c r="L6" t="n">
-        <v>318793.1535255932</v>
+        <v>318769.9291862103</v>
       </c>
       <c r="M6" t="n">
-        <v>175985.2843142279</v>
+        <v>175962.0599748451</v>
       </c>
       <c r="N6" t="n">
-        <v>328185.4552522154</v>
+        <v>328162.2309128327</v>
       </c>
       <c r="O6" t="n">
-        <v>328185.4552522156</v>
+        <v>328162.2309128327</v>
       </c>
       <c r="P6" t="n">
-        <v>328185.4552522156</v>
+        <v>328162.2309128327</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1278.260503384745</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939292</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="E4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939292</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939292</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="M4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>360.8927890506699</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>97.00787993732098</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>147.5238269668877</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.1806818930833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>215.7620727803163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>196.6755454493128</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>140.878398868216</v>
       </c>
       <c r="W7" t="n">
-        <v>63.00695229329017</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>86.14502017843137</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>372.7964946687778</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.498764579254609e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.526794458855493e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>165.2827306031545</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>72.805895586112</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684641</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>65.06686390159643</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35892,19 +35892,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.0015281256938</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36047,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080452</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36138,10 +36138,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36767,7 +36767,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512906</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>84.43304486678426</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645529</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>826.8607034446122</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
